--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.4204714152293</v>
+        <v>1792.996863021594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.832451964782327e-05</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.24047141523108</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.895457486282564</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.895457486282564</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>352.6799999999981</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.5</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>23.80648056830875</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29375422704624</v>
+        <v>30.66483080554379</v>
       </c>
     </row>
     <row r="5">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.80648056830877</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.92580242616198</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.90238894435903</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1004,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1018,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1032,15 +1043,169 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>66.41500000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>60.475</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>58.02999999999921</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>66.88</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>71.52999999999921</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>163.5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>159.965</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>161.21</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>162.6599999999996</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>166.7199999999989</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>172.5850000000003</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>172.9650000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>160.6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>176.9300000000003</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.2049999999996</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.2349999999989</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52499999999942</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78499999999898</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>172.5850000000003</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>172.9650000000004</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>160.6</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>176.9300000000003</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.2049999999996</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.6599999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>166.7199999999989</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.58500000000036</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>22.96500000000037</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>26.93000000000036</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.20499999999956</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.65999999999956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.71999999999887</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.879999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.045</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1820,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1886,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1897,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1908,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1919,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1988,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2037,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2048,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2059,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2070,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2081,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2092,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2103,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2114,12 +2279,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
